--- a/data/trans_orig/CALVIDA_SF12_MCB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Clase-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,48 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -105,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -501,400 +461,435 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Grupo I y II</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>46,12</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>46,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>46,19</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>46.04933332851213</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>46.18206391622027</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>46.10940678392117</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>45,32; 46,73</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>45,59; 46,87</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>45,64; 46,61</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>45.28460025553883</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>45.43859634594839</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>45.59348156995035</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>46.72375124526258</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>46.80711325010174</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>46.5534050455419</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Grupo III</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>46,94</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>46,38</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>46,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>46,31; 47,45</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>45,71; 47,03</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>46,19; 47,1</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>46.77204427029751</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>46.34828794306904</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>46.57596246341746</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>46.04991479342254</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>45.57402095110333</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>46.09093325112672</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>47.27384477002165</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>46.96637656610024</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>46.99922310821746</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Grupo IV y V</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>45,61</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>45,73</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>45,65</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>44,65; 46,32</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>44,45; 46,86</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>44,92; 46,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>45.47955564639677</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>45.85690554714754</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>45.59433289343036</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>44.34282953208555</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>44.3806074297623</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>44.68382850461598</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>46.32200148975922</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>46.97591379661359</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>46.26651624616123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Grupo VI</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>45,71</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>45,86</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>45,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>45,18; 46,22</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>45,28; 46,39</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>45,39; 46,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>45.62446267958244</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>45.51521968543841</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>45.57592472455573</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>44.96660562399102</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>44.88099292649696</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>45.06567400276168</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>46.20285110995604</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>46.09292231176495</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>45.94861682986824</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Grupo VII</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>46,48</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>44,75</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>45,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>45,67; 47,22</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>44,09; 45,39</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>44,91; 45,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="C16" s="4" t="n">
+        <v>46.33810213569926</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>44.58624519547658</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>45.23202352106939</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>45.43666079559429</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>43.75051044907401</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>44.63766870867484</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>47.20615271318092</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>45.26371372243211</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>45.81843160123304</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>No ha trabajado</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>46,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>44,3</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>44,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>44,66; 47,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>43,61; 44,87</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>44,05; 45,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="C19" s="4" t="n">
+        <v>45.61092898837592</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>44.09417596218121</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>44.45910742716586</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>44.08890902266818</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>43.31824797309537</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>43.7718479653453</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>46.75834419623999</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>44.7275635329244</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>45.02481857860867</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>46,11</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>45,38</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>45,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>45,81; 46,41</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>45,1; 45,63</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>45,54; 45,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C22" s="4" t="n">
+        <v>45.9717897430484</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>45.24471904548829</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>45.59663059385112</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>45.65705076787091</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>44.93283572344599</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>45.40686777454814</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>46.28021623982448</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>45.50605281552787</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>45.83516757775696</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -902,14 +897,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
